--- a/features.xlsx
+++ b/features.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D38BD30-81A0-4276-ACFF-C80F648F19AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A222432-1233-4607-A21F-1C98A0399F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="540" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="windows" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>Features of symlex vpn</t>
   </si>
@@ -406,102 +407,105 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -510,4 +514,117 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292336D3-052A-4AD4-9679-51E026722488}">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/features.xlsx
+++ b/features.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A222432-1233-4607-A21F-1C98A0399F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CD8AA3-5BF9-48A3-B987-849DAAF3A54C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="540" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="windows" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="19">
   <si>
     <t>Features of symlex vpn</t>
   </si>
@@ -101,12 +101,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,9 +127,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,105 +414,105 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.21875" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -524,102 +531,102 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>

--- a/features.xlsx
+++ b/features.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A222432-1233-4607-A21F-1C98A0399F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92F74FE-EE0C-46A9-8D76-6ED504E4DC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="540" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="windows" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>Features of symlex vpn</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>18. Logout</t>
+  </si>
+  <si>
+    <t>1. Log-in / Forgot Password</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,7 +425,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
